--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5392156862745098</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9016393442622951</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5225225225225225</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6748466257668712</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075075075075075</v>
+        <v>0.4744744744744745</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0758724063522091</v>
+        <v>0.09314386082125561</v>
       </c>
       <c r="J2" t="n">
-        <v>973.2688298731254</v>
+        <v>1208.954969591253</v>
       </c>
       <c r="K2" t="n">
-        <v>1335082.042226914</v>
+        <v>1958136.288248594</v>
       </c>
       <c r="L2" t="n">
-        <v>1155.457503427501</v>
+        <v>1399.33423035692</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7517710372776951</v>
+        <v>0.6359278873303578</v>
       </c>
     </row>
   </sheetData>
